--- a/modulo_odoo/Informes/Informexls/Inf_His_ComprasP.xlsx
+++ b/modulo_odoo/Informes/Informexls/Inf_His_ComprasP.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
-  <si>
-    <t>Informe Reclamacion Por Cliente a Corte: 19 - enero - 2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+  <si>
+    <t>Informe Reclamacion Por Cliente a Corte: 09 - junio - 2022</t>
   </si>
   <si>
     <t>No.</t>
@@ -51,61 +51,67 @@
     <t>Estado Orden</t>
   </si>
   <si>
-    <t>FEPO1002001880</t>
-  </si>
-  <si>
-    <t>SO1755</t>
-  </si>
-  <si>
-    <t>Z7-Salida Reclamación Promocional/Ofertas Portos</t>
-  </si>
-  <si>
-    <t>BODEGA-008-CEDI PORTOS</t>
-  </si>
-  <si>
-    <t>VIR000070</t>
-  </si>
-  <si>
-    <t>ENDOGARD 2.5 2 TABLETAS</t>
-  </si>
-  <si>
-    <t>DROGUERIA Y VETERINARIA LTDA.</t>
-  </si>
-  <si>
-    <t>2021-02-27 16:03:05</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>SO1804</t>
-  </si>
-  <si>
-    <t>2021-03-05 15:08:57</t>
-  </si>
-  <si>
-    <t>SO1756</t>
-  </si>
-  <si>
-    <t>2021-02-27 18:10:17</t>
+    <t>77 - SALIDA ARECLAMACION OFERTA NR -005</t>
+  </si>
+  <si>
+    <t>SO5177</t>
+  </si>
+  <si>
+    <t>Z7 - SALIDA RECLAMACION PROMOCIONAL/ OFERTAS PORTOS 008</t>
+  </si>
+  <si>
+    <t>BODEGA-040-DIGITAL</t>
+  </si>
+  <si>
+    <t>CAMILA DELGADO</t>
+  </si>
+  <si>
+    <t>2022-03-29 13:59:23</t>
   </si>
   <si>
     <t>cancel</t>
   </si>
   <si>
-    <t>SO1803</t>
-  </si>
-  <si>
-    <t>2021-03-05 14:56:14</t>
-  </si>
-  <si>
-    <t>progress</t>
-  </si>
-  <si>
-    <t>SO1802</t>
-  </si>
-  <si>
-    <t>2021-03-05 14:50:39</t>
+    <t>SO4965</t>
+  </si>
+  <si>
+    <t>DUITAMA MARIA DE JESUS</t>
+  </si>
+  <si>
+    <t>2022-03-25 17:16:29</t>
+  </si>
+  <si>
+    <t>SO5383</t>
+  </si>
+  <si>
+    <t>RICHARD ALEJANDRO ALVAREZ</t>
+  </si>
+  <si>
+    <t>2022-04-08 16:07:40</t>
+  </si>
+  <si>
+    <t>SO5581</t>
+  </si>
+  <si>
+    <t>MACIAS TAMAYO HECTOR ARIEL</t>
+  </si>
+  <si>
+    <t>2022-04-21 13:54:03</t>
+  </si>
+  <si>
+    <t>SO5861</t>
+  </si>
+  <si>
+    <t>JAIR GARCIA</t>
+  </si>
+  <si>
+    <t>2022-04-25 21:42:16</t>
+  </si>
+  <si>
+    <t>SO5341</t>
+  </si>
+  <si>
+    <t>2022-03-30 15:20:59</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C1" sqref="C1"/>
@@ -520,33 +526,17 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -554,7 +544,7 @@
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -565,13 +555,13 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -580,7 +570,7 @@
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -591,13 +581,13 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
         <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -606,7 +596,7 @@
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -617,13 +607,13 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
         <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -632,7 +622,7 @@
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -643,38 +633,66 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8"/>
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9"/>
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10"/>
@@ -783,6 +801,1146 @@
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
